--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10835592\Downloads\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Selenium</t>
   </si>
@@ -90,12 +90,103 @@
   </si>
   <si>
     <t>jenkin</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>Myk</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>yqU5U</t>
+  </si>
+  <si>
+    <t>8piQT</t>
+  </si>
+  <si>
+    <t>LQdBF</t>
+  </si>
+  <si>
+    <t>2xdOH</t>
+  </si>
+  <si>
+    <t>gskQw</t>
+  </si>
+  <si>
+    <t>jP9sa</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Burgundy</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -461,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7901ED2-E68B-450B-B5C9-6674648ABCFD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -469,73 +560,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5"/>
+    <col min="3" max="3" customWidth="true" width="10.4140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
+      <c r="A1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>9</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>13</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>16</v>
+      </c>
+      <c r="Y5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
